--- a/data/Levels.xlsx
+++ b/data/Levels.xlsx
@@ -55,9 +55,6 @@
     <t>Требования к производству уточнены на основе конкретных материалов и процессов</t>
   </si>
   <si>
-    <t>Определен бизнес- процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
-  </si>
-  <si>
     <t>Изготовлен макетный образец и продемонстрированы его ключевые характеристики</t>
   </si>
   <si>
@@ -196,7 +193,10 @@
     <t>Окончательное подтверждение работоспособности промышленного образца. Разработка функционирующей реальной системы завершена</t>
   </si>
   <si>
-    <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
+    <t>Определен бизнес-процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
+  </si>
+  <si>
+    <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы. Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,22 +624,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,19 +650,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/Levels.xlsx
+++ b/data/Levels.xlsx
@@ -49,9 +49,6 @@
     <t>Определена архитектура верхнего уровня: взаимодействие с внешними компонентами в системах железнодорожного транспорта</t>
   </si>
   <si>
-    <t>Определено наличие основных компетенций в команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
-  </si>
-  <si>
     <t>Требования к производству уточнены на основе конкретных материалов и процессов</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Решен вопрос по недостающим мощностям, условиям поставок</t>
   </si>
   <si>
-    <t>Реализованы меры по снижению рисков. Оценены требования к сервисной поддержке, необходимому расширению компетенций персонала</t>
-  </si>
-  <si>
     <t>Прототипы материалов, оборудования, контрольных приборов и квалификация персонала продемонстрированы в реальных условиях. Предварительно определены характеристики производства</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Определен окончательный состав производственной линии. Обеспечены надежные поставки, обновлена модель цены. Отработан предварительно эффект масштаба производства</t>
   </si>
   <si>
-    <t>Функциональные/технические риски сняты</t>
-  </si>
-  <si>
     <t>Подготовлен план вывода продукта на производство. Приняты решения по поддержке продукта, обучению персонала</t>
   </si>
   <si>
@@ -124,18 +115,9 @@
     <t>Свойства и интерфейс продукта/технологии определены и согласованы для анализа его интеграции в систему</t>
   </si>
   <si>
-    <t>Опытно-промышленный образец испытан в составе финальной системы Заказчика/пользователя. Проведена корректировка конструкторской документации</t>
-  </si>
-  <si>
-    <t>Полнофункциональный образец испытан в составе финальной системы Заказчика/пользователя. Проведен корректировка конструкторской документации</t>
-  </si>
-  <si>
     <t>Подтверждено, что продукт отвечает запросам Заказчика и других потребителей. Подготовлена модель оценки затрат на производство</t>
   </si>
   <si>
-    <t>Отсутствуют риски невыполнения проекта в установленные сроки. Заказчик готов провести испытания опытно-промышленного образца в своей системе</t>
-  </si>
-  <si>
     <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/технологией</t>
   </si>
   <si>
@@ -197,6 +179,24 @@
   </si>
   <si>
     <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы. Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
+  </si>
+  <si>
+    <t>Определено наличие основных компетенций в проектной команде. Проведена предварительная оценка трудозатрат. Определена достаточность ресурсов</t>
+  </si>
+  <si>
+    <t>Реализованы мероприятия по воздействию на риски. Оценены требования к сервисной поддержке, необходимому расширению компетенций персонала</t>
+  </si>
+  <si>
+    <t>Разработка технологии завершена</t>
+  </si>
+  <si>
+    <t>Опытно-промышленный образец испытан в составе финальной системы Заказчика. Проведена корректировка конструкторской документации</t>
+  </si>
+  <si>
+    <t>Риски невыполнения проекта в установленные сроки снижены до минимальных значений. Заказчик готов провести испытания опытно-промышленного образца в своей системе</t>
+  </si>
+  <si>
+    <t>Полнофункциональный образец испытан в составе финальной системы Заказчика. Проведена корректировка конструкторской документации</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,22 +624,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,19 +650,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Levels.xlsx
+++ b/data/Levels.xlsx
@@ -58,12 +58,6 @@
     <t>Принято решение «производить/заказать» на основе анализа средств производства у производителей</t>
   </si>
   <si>
-    <t>Проведен анализ реализуемости проекта. Заказчик подтвердил достаточность функционала продукта</t>
-  </si>
-  <si>
-    <t>Выявлены предпочтения потенциальных потребителей в отношении характеристик, сроков появления на рынке и цены создаваемого продукта/технологии</t>
-  </si>
-  <si>
     <t>Решен вопрос по недостающим мощностям, условиям поставок</t>
   </si>
   <si>
@@ -73,39 +67,15 @@
     <t>Зафиксирована конфигурация, обеспечена доступность критических технологий и компонентов</t>
   </si>
   <si>
-    <t>Разработана бизнес-модель. Определена конкурентноспособная цена. Показана положительная маржинальность коммерциализации создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Определен окончательный состав производственной линии. Обеспечены надежные поставки, обновлена модель цены. Отработан предварительно эффект масштаба производства</t>
-  </si>
-  <si>
     <t>Подготовлен план вывода продукта на производство. Приняты решения по поддержке продукта, обучению персонала</t>
   </si>
   <si>
-    <t>Уточнена бизнес-модель и сделанные ранее оценки прибыльности от коммерциализации создаваемого продукта/технологии</t>
-  </si>
-  <si>
-    <t>Уточнены/Доработаны производственные процессы для производства конечного продукта/технологии</t>
-  </si>
-  <si>
-    <t>Проведена подготовка к серийному производству. Создана производственная линия для выпуска промышленных партий продукта/образца</t>
-  </si>
-  <si>
     <t>Организовано стабильное производство. Налажена система послепродажного обслуживания</t>
   </si>
   <si>
-    <t>Осуществлен предварительный вывод продукта/технологии на рынок</t>
-  </si>
-  <si>
     <t>Поддержка производства, сервиса, снижение издержек</t>
   </si>
   <si>
-    <t>Осуществлен вывод созданного продукта/технологии на рынок</t>
-  </si>
-  <si>
-    <t>Продемонстрировано полномасштабное производство. Продукт/технология выпускается серийно</t>
-  </si>
-  <si>
     <t>Разработаны предварительные интерфейсы взаимодействия с внешними системами железнодорожного транспорта, определен минимально необходимый объем функций</t>
   </si>
   <si>
@@ -115,12 +85,6 @@
     <t>Свойства и интерфейс продукта/технологии определены и согласованы для анализа его интеграции в систему</t>
   </si>
   <si>
-    <t>Подтверждено, что продукт отвечает запросам Заказчика и других потребителей. Подготовлена модель оценки затрат на производство</t>
-  </si>
-  <si>
-    <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/технологией</t>
-  </si>
-  <si>
     <t>Уточнен и сегментирован целевой рынок (SOM), определен его общий объем</t>
   </si>
   <si>
@@ -145,12 +109,6 @@
     <t>Продемонстрирована работа реального продукта/технологии в условиях реальной эксплуатации</t>
   </si>
   <si>
-    <t>Определен потенциальный потребитель продукта/технологии. Оценен общий потенциал рынка (PAM)</t>
-  </si>
-  <si>
-    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAM)</t>
-  </si>
-  <si>
     <t>Выпущен полный комплект конструкторской и эксплуатационной документации. Инженерные доработки ограничиваются улучшением качества и себестоимости</t>
   </si>
   <si>
@@ -172,12 +130,6 @@
     <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях реальной эксплуатации в составе конечного продукта</t>
   </si>
   <si>
-    <t>Окончательное подтверждение работоспособности промышленного образца. Разработка функционирующей реальной системы завершена</t>
-  </si>
-  <si>
-    <t>Определен бизнес-процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
-  </si>
-  <si>
     <t>Изделие удовлетворяет всем требованиям: инженерным, производственным, эксплуатационным, по качеству и надежности. Возможна модификация по снижению себестоимости, развитию и эволюции системы. Функционирующая реальная система подтверждена в ходе реальной эксплуатации через успешное выполнение испытательных заданий</t>
   </si>
   <si>
@@ -190,13 +142,61 @@
     <t>Разработка технологии завершена</t>
   </si>
   <si>
-    <t>Опытно-промышленный образец испытан в составе финальной системы Заказчика. Проведена корректировка конструкторской документации</t>
-  </si>
-  <si>
-    <t>Риски невыполнения проекта в установленные сроки снижены до минимальных значений. Заказчик готов провести испытания опытно-промышленного образца в своей системе</t>
-  </si>
-  <si>
-    <t>Полнофункциональный образец испытан в составе финальной системы Заказчика. Проведена корректировка конструкторской документации</t>
+    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики.  Оценен общий потенциал рынка (PAM)</t>
+  </si>
+  <si>
+    <t>Определен бизнес- процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
+  </si>
+  <si>
+    <t>Уточнен и сегментирован целевой рынок (TAM), определен его общий объем. Получены предварительные оценки полной стоимости владения создаваемым продуктом/ технологией</t>
+  </si>
+  <si>
+    <t>Проведен анализ реализуемости проекта. Потенциальный Владелец продукта (Заказчик) подтвердил достаточность функционала продукта</t>
+  </si>
+  <si>
+    <t>Выявлены предпочтения возможных потребителей (Владельца продукта, других Заказчиков) в отношении характеристик, сроков появления на рынке и цены создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Уточнены конкуренты, подтверждено, что стоимость создаваемого продукта/ технологии не будет выше, чем у конкурентов. Уточнен общий потенциал рынка (SAM)</t>
+  </si>
+  <si>
+    <t>Подтверждено, что продукт отвечает запросам Владельца продукта и других потребителей (Заказчиков). Подготовлена модель оценки затрат на производство</t>
+  </si>
+  <si>
+    <t>Разработана бизнес-модель. Определена конкурентно-способная цена. Показана положительная маржинальность коммерциализации создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Определен окончательный состав производственной линии. Обеспечены надежные поставки, обновлена модель цены. Предварительно отработан эффект масштаба производства</t>
+  </si>
+  <si>
+    <t>Уточнена бизнес-модель и сделанные ранее оценки прибыльности от коммерциализации создаваемого продукта/ технологии</t>
+  </si>
+  <si>
+    <t>Уточнены/доработаны производственные процессы для производства конечного продукта / технологии</t>
+  </si>
+  <si>
+    <t>Опытно-промышленный образец испытан в составе финальной системы Владельца продукта. Проведена корректировка конструкторской документации</t>
+  </si>
+  <si>
+    <t>Риски невыполнения проекта в установленные сроки снижены до минимальных значений. Владелец продукта готов провести испытания опытно-промышленного образца в своей системе</t>
+  </si>
+  <si>
+    <t>Подтверждена работоспособность промышленного образца. Разработка функционирующей реальной системы завершена</t>
+  </si>
+  <si>
+    <t>Проведена подготовка к серийному производству. Создана производственная линия для выпуска промышленных партий продукта/ образца</t>
+  </si>
+  <si>
+    <t>Полнофункциональный образец испытан в составе финальной системы Владельца продукта. Проведена корректировка конструкторской документации</t>
+  </si>
+  <si>
+    <t>Осуществлен предварительный вывод продукта/ технологии на рынок</t>
+  </si>
+  <si>
+    <t>Продемонстрировано полномасштабное производство. Продукт/ технология выпускается серийно</t>
+  </si>
+  <si>
+    <t>Осуществлен вывод созданного продукта/ технологии на рынок</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -633,13 +633,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,19 +650,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/Levels.xlsx
+++ b/data/Levels.xlsx
@@ -40,9 +40,6 @@
     <t>Выявлены и опубликованы фундаментальные принципы</t>
   </si>
   <si>
-    <t>Компоненты и/или макеты проверены в лабораторных условиях</t>
-  </si>
-  <si>
     <t>Определены базовые требования к производству и необходимые изменения в существующем производственном процессе</t>
   </si>
   <si>
@@ -91,12 +88,6 @@
     <t>Cформулированы технологическая концепция и/или применение возможных концепций для перспективных продуктов/технологий</t>
   </si>
   <si>
-    <t>Даны аналитические и экспериментальные подтверждения по важнейшим функциональным возможностям и/или характеристикам выбранной концепции для создания продукта/технологии</t>
-  </si>
-  <si>
-    <t>Компоненты и/или макеты подсистем продукта/технологии испытаны в условиях, близких к реальным</t>
-  </si>
-  <si>
     <t>Модель или прототип продукта/технологии и его элементов продемонстрированы в условиях, близких к реальным</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>По полупромышленной технологии изготовлен и испытан экспериментальный образец в реальном масштабе, проведена эмуляция основных внешних условий</t>
   </si>
   <si>
-    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
-  </si>
-  <si>
     <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях реальной эксплуатации в составе конечного продукта</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>Разработка технологии завершена</t>
   </si>
   <si>
-    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики.  Оценен общий потенциал рынка (PAM)</t>
-  </si>
-  <si>
     <t>Определен бизнес- процесс разработки: декомпозиция задач, методология разработки. Определены партнеры, зафиксированы договоренности, включая принцип распределения интеллектуальной собственности</t>
   </si>
   <si>
@@ -197,6 +182,21 @@
   </si>
   <si>
     <t>Осуществлен вывод созданного продукта/ технологии на рынок</t>
+  </si>
+  <si>
+    <t>Даны аналитические и экспериментальные подтверждения по важнейшим функциональным возможностям и (или) характеристикам выбранной концепции для создания продукта/технологии</t>
+  </si>
+  <si>
+    <t>Компоненты и (или) макеты проверены в лабораторных условиях</t>
+  </si>
+  <si>
+    <t>Компоненты и (или) макеты подсистем продукта/технологии испытаны в условиях, близких к реальным</t>
+  </si>
+  <si>
+    <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики. Оценен общий потенциал рынка (PAM)</t>
+  </si>
+  <si>
+    <t>Изготовлен полнофункциональный образец на пилотной производствен-ной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,19 +581,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,22 +624,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,22 +647,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/Levels.xlsx
+++ b/data/Levels.xlsx
@@ -196,7 +196,7 @@
     <t>Определены потенциальные потребители продукта/ технологии – Владелец продукта, другие Заказчики. Оценен общий потенциал рынка (PAM)</t>
   </si>
   <si>
-    <t>Изготовлен полнофункциональный образец на пилотной производствен-ной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
+    <t>Изготовлен полнофункциональный образец на пилотной производственной линии, подтверждены рабочие характеристики в условиях, максимально приближенных к реальности</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
